--- a/data/HR3/Location3/Location3_2020.xlsx
+++ b/data/HR3/Location3/Location3_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\HR3\Location3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBF486-22AB-4B2F-8126-4B86842142B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF713012-CEA4-4926-93F0-9A40B9973FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -10070,7 +10070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -32826,7 +32826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D769D3-FBAB-4883-9B98-5E902B8A0669}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
